--- a/Code/Results/Cases/Case_3_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029746171265579</v>
+        <v>1.051534985894685</v>
       </c>
       <c r="D2">
-        <v>1.049301263064243</v>
+        <v>1.060203582676322</v>
       </c>
       <c r="E2">
-        <v>1.042987660221556</v>
+        <v>1.059213121012961</v>
       </c>
       <c r="F2">
-        <v>1.055913034273512</v>
+        <v>1.071713674048925</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064034049514604</v>
+        <v>1.052310826394575</v>
       </c>
       <c r="J2">
-        <v>1.051072175317428</v>
+        <v>1.056562347819889</v>
       </c>
       <c r="K2">
-        <v>1.060113964597065</v>
+        <v>1.062931000765941</v>
       </c>
       <c r="L2">
-        <v>1.053878913412333</v>
+        <v>1.061943238859832</v>
       </c>
       <c r="M2">
-        <v>1.066644725900147</v>
+        <v>1.074410114180239</v>
       </c>
       <c r="N2">
-        <v>1.052564818366043</v>
+        <v>1.058062787543189</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033933721220844</v>
+        <v>1.052424414698844</v>
       </c>
       <c r="D3">
-        <v>1.052598704228813</v>
+        <v>1.060924545348348</v>
       </c>
       <c r="E3">
-        <v>1.046452911001822</v>
+        <v>1.059994967393822</v>
       </c>
       <c r="F3">
-        <v>1.05963959120794</v>
+        <v>1.072553799750207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065575301490094</v>
+        <v>1.052579425035528</v>
       </c>
       <c r="J3">
-        <v>1.053540203229996</v>
+        <v>1.057102191549707</v>
       </c>
       <c r="K3">
-        <v>1.062600062046534</v>
+        <v>1.063466578983021</v>
       </c>
       <c r="L3">
-        <v>1.056524013906547</v>
+        <v>1.062539352416474</v>
       </c>
       <c r="M3">
-        <v>1.06956226909937</v>
+        <v>1.075066787708864</v>
       </c>
       <c r="N3">
-        <v>1.055036351161333</v>
+        <v>1.058603397913023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036592592236357</v>
+        <v>1.05300053871594</v>
       </c>
       <c r="D4">
-        <v>1.054694791354496</v>
+        <v>1.061391557297792</v>
       </c>
       <c r="E4">
-        <v>1.0486583845593</v>
+        <v>1.060501752128408</v>
       </c>
       <c r="F4">
-        <v>1.062010761967917</v>
+        <v>1.073098315647763</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066544584524573</v>
+        <v>1.052752257466571</v>
       </c>
       <c r="J4">
-        <v>1.055104414655236</v>
+        <v>1.05745143974822</v>
       </c>
       <c r="K4">
-        <v>1.064175043731311</v>
+        <v>1.063812960939062</v>
       </c>
       <c r="L4">
-        <v>1.05820298042779</v>
+        <v>1.062925293679281</v>
       </c>
       <c r="M4">
-        <v>1.071414229271535</v>
+        <v>1.075491946127797</v>
       </c>
       <c r="N4">
-        <v>1.056602783946215</v>
+        <v>1.058953142084038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037698621565186</v>
+        <v>1.053242884411845</v>
       </c>
       <c r="D5">
-        <v>1.055567249093281</v>
+        <v>1.061588007360402</v>
       </c>
       <c r="E5">
-        <v>1.049577029550167</v>
+        <v>1.060715012872876</v>
       </c>
       <c r="F5">
-        <v>1.062998280165428</v>
+        <v>1.073327443403826</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066945511913657</v>
+        <v>1.05282468349238</v>
       </c>
       <c r="J5">
-        <v>1.055754377615552</v>
+        <v>1.05759824648711</v>
       </c>
       <c r="K5">
-        <v>1.064829312417687</v>
+        <v>1.063958537227258</v>
       </c>
       <c r="L5">
-        <v>1.058901233608149</v>
+        <v>1.063087593729799</v>
       </c>
       <c r="M5">
-        <v>1.072184441493643</v>
+        <v>1.075670740304641</v>
       </c>
       <c r="N5">
-        <v>1.057253669928486</v>
+        <v>1.059100157305336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037883650173331</v>
+        <v>1.053283583672968</v>
       </c>
       <c r="D6">
-        <v>1.055713233550498</v>
+        <v>1.061620999075215</v>
       </c>
       <c r="E6">
-        <v>1.04973078110787</v>
+        <v>1.06075083246351</v>
       </c>
       <c r="F6">
-        <v>1.063163550446943</v>
+        <v>1.073365927416251</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067012448887683</v>
+        <v>1.052836830470775</v>
       </c>
       <c r="J6">
-        <v>1.055863067762673</v>
+        <v>1.057622894940459</v>
       </c>
       <c r="K6">
-        <v>1.064938712453452</v>
+        <v>1.06398297758633</v>
       </c>
       <c r="L6">
-        <v>1.059018034798612</v>
+        <v>1.063114847535354</v>
       </c>
       <c r="M6">
-        <v>1.072313280522072</v>
+        <v>1.075700763966689</v>
       </c>
       <c r="N6">
-        <v>1.057362514428083</v>
+        <v>1.059124840762316</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03660741675814</v>
+        <v>1.053003776390299</v>
       </c>
       <c r="D7">
-        <v>1.054706483173407</v>
+        <v>1.061394181810647</v>
       </c>
       <c r="E7">
-        <v>1.048670692732175</v>
+        <v>1.060504600912033</v>
       </c>
       <c r="F7">
-        <v>1.062023993484173</v>
+        <v>1.073101376428302</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066549967319315</v>
+        <v>1.052753226142111</v>
       </c>
       <c r="J7">
-        <v>1.055113129202708</v>
+        <v>1.057453401456168</v>
       </c>
       <c r="K7">
-        <v>1.064183816686459</v>
+        <v>1.063814906305878</v>
       </c>
       <c r="L7">
-        <v>1.058212340039929</v>
+        <v>1.062927462144377</v>
       </c>
       <c r="M7">
-        <v>1.071424553391921</v>
+        <v>1.075494334959968</v>
       </c>
       <c r="N7">
-        <v>1.056611510869343</v>
+        <v>1.058955106577836</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.031172123051294</v>
+        <v>1.051835446557093</v>
       </c>
       <c r="D8">
-        <v>1.050423588949613</v>
+        <v>1.060447130666946</v>
       </c>
       <c r="E8">
-        <v>1.044166537585981</v>
+        <v>1.059477166862653</v>
       </c>
       <c r="F8">
-        <v>1.057180937363532</v>
+        <v>1.071997411360675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064560812827485</v>
+        <v>1.052401800698094</v>
       </c>
       <c r="J8">
-        <v>1.051913173028421</v>
+        <v>1.056744803636049</v>
       </c>
       <c r="K8">
-        <v>1.060961259024966</v>
+        <v>1.06311203697644</v>
       </c>
       <c r="L8">
-        <v>1.054779719793332</v>
+        <v>1.062144652705278</v>
       </c>
       <c r="M8">
-        <v>1.067638300953128</v>
+        <v>1.07463198808875</v>
       </c>
       <c r="N8">
-        <v>1.053407010390248</v>
+        <v>1.058245502467536</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.021187272119713</v>
+        <v>1.049781391704661</v>
       </c>
       <c r="D9">
-        <v>1.042576573969404</v>
+        <v>1.058782215819731</v>
       </c>
       <c r="E9">
-        <v>1.035935354588389</v>
+        <v>1.05767349589791</v>
       </c>
       <c r="F9">
-        <v>1.048325481983398</v>
+        <v>1.070059044221221</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060834219140236</v>
+        <v>1.051775158615852</v>
       </c>
       <c r="J9">
-        <v>1.046013415036204</v>
+        <v>1.055495705841967</v>
       </c>
       <c r="K9">
-        <v>1.055014680938678</v>
+        <v>1.061872223241136</v>
       </c>
       <c r="L9">
-        <v>1.048471120692587</v>
+        <v>1.060766955940122</v>
       </c>
       <c r="M9">
-        <v>1.060680316923373</v>
+        <v>1.073114378362092</v>
       </c>
       <c r="N9">
-        <v>1.047498874064971</v>
+        <v>1.056994630811312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.014229683871939</v>
+        <v>1.048415263091769</v>
       </c>
       <c r="D10">
-        <v>1.037125539002671</v>
+        <v>1.057675001332809</v>
       </c>
       <c r="E10">
-        <v>1.030231439399879</v>
+        <v>1.056475722088942</v>
       </c>
       <c r="F10">
-        <v>1.04218546929259</v>
+        <v>1.068771586610706</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058190699821313</v>
+        <v>1.051352478213645</v>
       </c>
       <c r="J10">
-        <v>1.041889888596636</v>
+        <v>1.054662738241775</v>
       </c>
       <c r="K10">
-        <v>1.050855343667666</v>
+        <v>1.061044904122311</v>
       </c>
       <c r="L10">
-        <v>1.044075497631604</v>
+        <v>1.059849723830014</v>
       </c>
       <c r="M10">
-        <v>1.055832652754484</v>
+        <v>1.072104042148398</v>
       </c>
       <c r="N10">
-        <v>1.043369491744884</v>
+        <v>1.056160480301586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.011139037929142</v>
+        <v>1.04782450127505</v>
       </c>
       <c r="D11">
-        <v>1.034708779128902</v>
+        <v>1.057196233449806</v>
       </c>
       <c r="E11">
-        <v>1.027705801380626</v>
+        <v>1.055958202822289</v>
       </c>
       <c r="F11">
-        <v>1.039465865503383</v>
+        <v>1.068215261314317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057005832796375</v>
+        <v>1.051168295972013</v>
       </c>
       <c r="J11">
-        <v>1.04005565136103</v>
+        <v>1.054302013300096</v>
       </c>
       <c r="K11">
-        <v>1.04900453628382</v>
+        <v>1.06068649757222</v>
       </c>
       <c r="L11">
-        <v>1.042123480951411</v>
+        <v>1.059452861404173</v>
       </c>
       <c r="M11">
-        <v>1.053680011647376</v>
+        <v>1.071666906993197</v>
       </c>
       <c r="N11">
-        <v>1.041532649682014</v>
+        <v>1.055799243089113</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.009978724695974</v>
+        <v>1.04760518479406</v>
       </c>
       <c r="D12">
-        <v>1.033802218964796</v>
+        <v>1.057018499083271</v>
       </c>
       <c r="E12">
-        <v>1.026758879256637</v>
+        <v>1.05576614383466</v>
       </c>
       <c r="F12">
-        <v>1.038446087724927</v>
+        <v>1.068008792279148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056559456262938</v>
+        <v>1.051099709148707</v>
       </c>
       <c r="J12">
-        <v>1.039366689835634</v>
+        <v>1.054168018520321</v>
       </c>
       <c r="K12">
-        <v>1.048309262612971</v>
+        <v>1.060553344866993</v>
       </c>
       <c r="L12">
-        <v>1.041390770974178</v>
+        <v>1.059305496225505</v>
       </c>
       <c r="M12">
-        <v>1.05287201465509</v>
+        <v>1.071504589176187</v>
       </c>
       <c r="N12">
-        <v>1.040842709752227</v>
+        <v>1.055665058021382</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010228182856199</v>
+        <v>1.047652223526322</v>
       </c>
       <c r="D13">
-        <v>1.033997087021059</v>
+        <v>1.057056619095152</v>
       </c>
       <c r="E13">
-        <v>1.026962401676643</v>
+        <v>1.055807333386563</v>
       </c>
       <c r="F13">
-        <v>1.038665275118412</v>
+        <v>1.068053072641922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056655492755266</v>
+        <v>1.051114429086746</v>
       </c>
       <c r="J13">
-        <v>1.03951482575838</v>
+        <v>1.054196761083817</v>
       </c>
       <c r="K13">
-        <v>1.048458759583826</v>
+        <v>1.060581907664949</v>
       </c>
       <c r="L13">
-        <v>1.041548291182097</v>
+        <v>1.059337104399081</v>
       </c>
       <c r="M13">
-        <v>1.053045719385894</v>
+        <v>1.071539404447445</v>
       </c>
       <c r="N13">
-        <v>1.040991056044974</v>
+        <v>1.055693841402615</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.011043380771391</v>
+        <v>1.047806370075264</v>
       </c>
       <c r="D14">
-        <v>1.034634025827326</v>
+        <v>1.057181539794502</v>
       </c>
       <c r="E14">
-        <v>1.027627710187967</v>
+        <v>1.055942323673969</v>
       </c>
       <c r="F14">
-        <v>1.039381768747003</v>
+        <v>1.068198190939984</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056969064301946</v>
+        <v>1.051162630095418</v>
       </c>
       <c r="J14">
-        <v>1.039998859468605</v>
+        <v>1.05429093735451</v>
       </c>
       <c r="K14">
-        <v>1.048947225819467</v>
+        <v>1.060675491621606</v>
       </c>
       <c r="L14">
-        <v>1.04206307283165</v>
+        <v>1.059440679181905</v>
       </c>
       <c r="M14">
-        <v>1.053613396099752</v>
+        <v>1.07165348864885</v>
       </c>
       <c r="N14">
-        <v>1.041475777138587</v>
+        <v>1.055788151414414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.011544001480374</v>
+        <v>1.047901360631792</v>
       </c>
       <c r="D15">
-        <v>1.035025277681604</v>
+        <v>1.057258521039646</v>
       </c>
       <c r="E15">
-        <v>1.028036451783807</v>
+        <v>1.05602551831805</v>
       </c>
       <c r="F15">
-        <v>1.039821938953556</v>
+        <v>1.068287626350083</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057161429095441</v>
+        <v>1.051192305381626</v>
       </c>
       <c r="J15">
-        <v>1.040296065661042</v>
+        <v>1.054348961773693</v>
       </c>
       <c r="K15">
-        <v>1.049247142281448</v>
+        <v>1.060733148570363</v>
       </c>
       <c r="L15">
-        <v>1.042379223674118</v>
+        <v>1.059504501318522</v>
       </c>
       <c r="M15">
-        <v>1.05396203482844</v>
+        <v>1.071723786843584</v>
       </c>
       <c r="N15">
-        <v>1.041773405397907</v>
+        <v>1.055846258234928</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.014433107180061</v>
+        <v>1.048454486583298</v>
       </c>
       <c r="D16">
-        <v>1.037284709756487</v>
+        <v>1.057706789699547</v>
       </c>
       <c r="E16">
-        <v>1.030397848019395</v>
+        <v>1.056510091982661</v>
       </c>
       <c r="F16">
-        <v>1.042364639533154</v>
+        <v>1.06880853252265</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058268469670045</v>
+        <v>1.051364677432225</v>
       </c>
       <c r="J16">
-        <v>1.042010567129668</v>
+        <v>1.054686677534081</v>
       </c>
       <c r="K16">
-        <v>1.050977099706161</v>
+        <v>1.061068686871338</v>
       </c>
       <c r="L16">
-        <v>1.044203993139611</v>
+        <v>1.059876068826513</v>
       </c>
       <c r="M16">
-        <v>1.055974357389994</v>
+        <v>1.072133060809533</v>
       </c>
       <c r="N16">
-        <v>1.043490341655274</v>
+        <v>1.056184453590432</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016224084099415</v>
+        <v>1.048801657961614</v>
       </c>
       <c r="D17">
-        <v>1.038686616492207</v>
+        <v>1.057988155563027</v>
       </c>
       <c r="E17">
-        <v>1.03186387137986</v>
+        <v>1.056814354580277</v>
       </c>
       <c r="F17">
-        <v>1.043942990714971</v>
+        <v>1.069135593005298</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05895196907695</v>
+        <v>1.051472492150439</v>
       </c>
       <c r="J17">
-        <v>1.043072761418826</v>
+        <v>1.054898506652675</v>
       </c>
       <c r="K17">
-        <v>1.05204870601661</v>
+        <v>1.061279116055618</v>
       </c>
       <c r="L17">
-        <v>1.045335362225077</v>
+        <v>1.06010922595555</v>
       </c>
       <c r="M17">
-        <v>1.057222043092029</v>
+        <v>1.072389881538197</v>
       </c>
       <c r="N17">
-        <v>1.044554044382159</v>
+        <v>1.056396583530672</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.017261250417899</v>
+        <v>1.049004232400331</v>
       </c>
       <c r="D18">
-        <v>1.039498908285327</v>
+        <v>1.058152335396074</v>
       </c>
       <c r="E18">
-        <v>1.032713622114934</v>
+        <v>1.056991934206188</v>
       </c>
       <c r="F18">
-        <v>1.044857767751808</v>
+        <v>1.069326472913695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059346779265186</v>
+        <v>1.051535266789021</v>
       </c>
       <c r="J18">
-        <v>1.043687643213097</v>
+        <v>1.055022058621609</v>
       </c>
       <c r="K18">
-        <v>1.052668974851288</v>
+        <v>1.061401839166154</v>
       </c>
       <c r="L18">
-        <v>1.045990596794251</v>
+        <v>1.060245251914059</v>
       </c>
       <c r="M18">
-        <v>1.057944653834281</v>
+        <v>1.072539714113186</v>
       </c>
       <c r="N18">
-        <v>1.045169799379105</v>
+        <v>1.056520310957573</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.017613646059985</v>
+        <v>1.049073317768404</v>
       </c>
       <c r="D19">
-        <v>1.03977497151325</v>
+        <v>1.058208327260983</v>
       </c>
       <c r="E19">
-        <v>1.033002468570366</v>
+        <v>1.057052502603276</v>
       </c>
       <c r="F19">
-        <v>1.045168704027367</v>
+        <v>1.069391576812292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059480750598403</v>
+        <v>1.051556652321503</v>
       </c>
       <c r="J19">
-        <v>1.043896518035534</v>
+        <v>1.055064185871875</v>
       </c>
       <c r="K19">
-        <v>1.052879668999785</v>
+        <v>1.061443681708728</v>
       </c>
       <c r="L19">
-        <v>1.04621323177586</v>
+        <v>1.060291638187737</v>
       </c>
       <c r="M19">
-        <v>1.058190183678972</v>
+        <v>1.072590808767077</v>
       </c>
       <c r="N19">
-        <v>1.045378970827749</v>
+        <v>1.056562498033367</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.016032707131628</v>
+        <v>1.048764401964708</v>
       </c>
       <c r="D20">
-        <v>1.038536768189628</v>
+        <v>1.057957961048551</v>
       </c>
       <c r="E20">
-        <v>1.031707137773232</v>
+        <v>1.056781698858158</v>
       </c>
       <c r="F20">
-        <v>1.043774256610207</v>
+        <v>1.069100491009923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058879037247649</v>
+        <v>1.051460936216467</v>
       </c>
       <c r="J20">
-        <v>1.04295928418784</v>
+        <v>1.054875779836493</v>
       </c>
       <c r="K20">
-        <v>1.051934229583645</v>
+        <v>1.061256540710946</v>
       </c>
       <c r="L20">
-        <v>1.045214462792383</v>
+        <v>1.060084207356613</v>
       </c>
       <c r="M20">
-        <v>1.057088712757845</v>
+        <v>1.072362323640153</v>
       </c>
       <c r="N20">
-        <v>1.044440406000489</v>
+        <v>1.056373824439804</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.010803670091642</v>
+        <v>1.047760974468605</v>
       </c>
       <c r="D21">
-        <v>1.034446711277668</v>
+        <v>1.057144750950999</v>
       </c>
       <c r="E21">
-        <v>1.027432039360656</v>
+        <v>1.055902567672474</v>
       </c>
       <c r="F21">
-        <v>1.039171047795129</v>
+        <v>1.068155452374054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056876900084514</v>
+        <v>1.051148440878571</v>
       </c>
       <c r="J21">
-        <v>1.039856537323748</v>
+        <v>1.054263204931517</v>
       </c>
       <c r="K21">
-        <v>1.048803602725167</v>
+        <v>1.060647934146481</v>
       </c>
       <c r="L21">
-        <v>1.041911696231447</v>
+        <v>1.059410177676162</v>
       </c>
       <c r="M21">
-        <v>1.053446464636603</v>
+        <v>1.071619892202178</v>
       </c>
       <c r="N21">
-        <v>1.041333252879959</v>
+        <v>1.0557603796082</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00744442343561</v>
+        <v>1.047130767609747</v>
       </c>
       <c r="D22">
-        <v>1.031823612204267</v>
+        <v>1.056634040657914</v>
       </c>
       <c r="E22">
-        <v>1.024693054561484</v>
+        <v>1.055350811541701</v>
       </c>
       <c r="F22">
-        <v>1.036221071399344</v>
+        <v>1.06756228218625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055581713486893</v>
+        <v>1.050950960156365</v>
       </c>
       <c r="J22">
-        <v>1.03786131531585</v>
+        <v>1.053878023696302</v>
       </c>
       <c r="K22">
-        <v>1.046789943135558</v>
+        <v>1.0602651376103</v>
       </c>
       <c r="L22">
-        <v>1.039790711302013</v>
+        <v>1.058986662199462</v>
       </c>
       <c r="M22">
-        <v>1.051107584220959</v>
+        <v>1.071153407193493</v>
       </c>
       <c r="N22">
-        <v>1.039335197427955</v>
+        <v>1.055374651371449</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.009232214293213</v>
+        <v>1.047464786508215</v>
       </c>
       <c r="D23">
-        <v>1.033219186596737</v>
+        <v>1.056904721626175</v>
       </c>
       <c r="E23">
-        <v>1.02615002336956</v>
+        <v>1.055643213624145</v>
       </c>
       <c r="F23">
-        <v>1.037790348873392</v>
+        <v>1.067876636285862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056271841592868</v>
+        <v>1.051055743193262</v>
       </c>
       <c r="J23">
-        <v>1.038923342523707</v>
+        <v>1.054082218099728</v>
       </c>
       <c r="K23">
-        <v>1.047861829611933</v>
+        <v>1.060468078277703</v>
       </c>
       <c r="L23">
-        <v>1.040919410086244</v>
+        <v>1.059211149367581</v>
       </c>
       <c r="M23">
-        <v>1.052352226451835</v>
+        <v>1.071400669733991</v>
       </c>
       <c r="N23">
-        <v>1.040398732836263</v>
+        <v>1.055579135754351</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016119205218598</v>
+        <v>1.048781236113697</v>
       </c>
       <c r="D24">
-        <v>1.038604494898647</v>
+        <v>1.057971604452746</v>
       </c>
       <c r="E24">
-        <v>1.031777975465984</v>
+        <v>1.056796454238608</v>
       </c>
       <c r="F24">
-        <v>1.043850518331165</v>
+        <v>1.069116351747744</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05891200392502</v>
+        <v>1.051466158191329</v>
       </c>
       <c r="J24">
-        <v>1.043010574097539</v>
+        <v>1.054886049120109</v>
       </c>
       <c r="K24">
-        <v>1.051985971307697</v>
+        <v>1.061266741589121</v>
       </c>
       <c r="L24">
-        <v>1.045269106461944</v>
+        <v>1.060095512094033</v>
       </c>
       <c r="M24">
-        <v>1.057148974864834</v>
+        <v>1.072374775765074</v>
       </c>
       <c r="N24">
-        <v>1.044491768747743</v>
+        <v>1.05638410830698</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.023819556305913</v>
+        <v>1.050311849199952</v>
       </c>
       <c r="D25">
-        <v>1.044642557808847</v>
+        <v>1.059212162552886</v>
       </c>
       <c r="E25">
-        <v>1.038100038581777</v>
+        <v>1.058138971818036</v>
       </c>
       <c r="F25">
-        <v>1.050654934854657</v>
+        <v>1.070559322684477</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061824892968051</v>
+        <v>1.051938031045802</v>
       </c>
       <c r="J25">
-        <v>1.047571054004874</v>
+        <v>1.055818674397763</v>
       </c>
       <c r="K25">
-        <v>1.056585242678645</v>
+        <v>1.062192887264968</v>
       </c>
       <c r="L25">
-        <v>1.050134350392576</v>
+        <v>1.061122912242699</v>
       </c>
       <c r="M25">
-        <v>1.062514684809334</v>
+        <v>1.073506475957713</v>
       </c>
       <c r="N25">
-        <v>1.04905872505964</v>
+        <v>1.057318058019503</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_194/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051534985894685</v>
+        <v>1.029746171265579</v>
       </c>
       <c r="D2">
-        <v>1.060203582676322</v>
+        <v>1.049301263064243</v>
       </c>
       <c r="E2">
-        <v>1.059213121012961</v>
+        <v>1.042987660221556</v>
       </c>
       <c r="F2">
-        <v>1.071713674048925</v>
+        <v>1.055913034273513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052310826394575</v>
+        <v>1.064034049514604</v>
       </c>
       <c r="J2">
-        <v>1.056562347819889</v>
+        <v>1.051072175317428</v>
       </c>
       <c r="K2">
-        <v>1.062931000765941</v>
+        <v>1.060113964597065</v>
       </c>
       <c r="L2">
-        <v>1.061943238859832</v>
+        <v>1.053878913412333</v>
       </c>
       <c r="M2">
-        <v>1.074410114180239</v>
+        <v>1.066644725900147</v>
       </c>
       <c r="N2">
-        <v>1.058062787543189</v>
+        <v>1.052564818366043</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052424414698844</v>
+        <v>1.033933721220843</v>
       </c>
       <c r="D3">
-        <v>1.060924545348348</v>
+        <v>1.052598704228812</v>
       </c>
       <c r="E3">
-        <v>1.059994967393822</v>
+        <v>1.046452911001821</v>
       </c>
       <c r="F3">
-        <v>1.072553799750207</v>
+        <v>1.059639591207938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052579425035528</v>
+        <v>1.065575301490094</v>
       </c>
       <c r="J3">
-        <v>1.057102191549707</v>
+        <v>1.053540203229995</v>
       </c>
       <c r="K3">
-        <v>1.063466578983021</v>
+        <v>1.062600062046532</v>
       </c>
       <c r="L3">
-        <v>1.062539352416474</v>
+        <v>1.056524013906546</v>
       </c>
       <c r="M3">
-        <v>1.075066787708864</v>
+        <v>1.069562269099368</v>
       </c>
       <c r="N3">
-        <v>1.058603397913023</v>
+        <v>1.055036351161331</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05300053871594</v>
+        <v>1.036592592236356</v>
       </c>
       <c r="D4">
-        <v>1.061391557297792</v>
+        <v>1.054694791354495</v>
       </c>
       <c r="E4">
-        <v>1.060501752128408</v>
+        <v>1.048658384559299</v>
       </c>
       <c r="F4">
-        <v>1.073098315647763</v>
+        <v>1.062010761967916</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052752257466571</v>
+        <v>1.066544584524572</v>
       </c>
       <c r="J4">
-        <v>1.05745143974822</v>
+        <v>1.055104414655236</v>
       </c>
       <c r="K4">
-        <v>1.063812960939062</v>
+        <v>1.064175043731311</v>
       </c>
       <c r="L4">
-        <v>1.062925293679281</v>
+        <v>1.058202980427789</v>
       </c>
       <c r="M4">
-        <v>1.075491946127797</v>
+        <v>1.071414229271534</v>
       </c>
       <c r="N4">
-        <v>1.058953142084038</v>
+        <v>1.056602783946214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053242884411845</v>
+        <v>1.037698621565185</v>
       </c>
       <c r="D5">
-        <v>1.061588007360402</v>
+        <v>1.05556724909328</v>
       </c>
       <c r="E5">
-        <v>1.060715012872876</v>
+        <v>1.049577029550166</v>
       </c>
       <c r="F5">
-        <v>1.073327443403826</v>
+        <v>1.062998280165426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05282468349238</v>
+        <v>1.066945511913656</v>
       </c>
       <c r="J5">
-        <v>1.05759824648711</v>
+        <v>1.055754377615551</v>
       </c>
       <c r="K5">
-        <v>1.063958537227258</v>
+        <v>1.064829312417686</v>
       </c>
       <c r="L5">
-        <v>1.063087593729799</v>
+        <v>1.058901233608148</v>
       </c>
       <c r="M5">
-        <v>1.075670740304641</v>
+        <v>1.072184441493642</v>
       </c>
       <c r="N5">
-        <v>1.059100157305336</v>
+        <v>1.057253669928485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053283583672968</v>
+        <v>1.03788365017333</v>
       </c>
       <c r="D6">
-        <v>1.061620999075215</v>
+        <v>1.055713233550498</v>
       </c>
       <c r="E6">
-        <v>1.06075083246351</v>
+        <v>1.04973078110787</v>
       </c>
       <c r="F6">
-        <v>1.073365927416251</v>
+        <v>1.063163550446944</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052836830470775</v>
+        <v>1.067012448887683</v>
       </c>
       <c r="J6">
-        <v>1.057622894940459</v>
+        <v>1.055863067762673</v>
       </c>
       <c r="K6">
-        <v>1.06398297758633</v>
+        <v>1.064938712453452</v>
       </c>
       <c r="L6">
-        <v>1.063114847535354</v>
+        <v>1.059018034798612</v>
       </c>
       <c r="M6">
-        <v>1.075700763966689</v>
+        <v>1.072313280522072</v>
       </c>
       <c r="N6">
-        <v>1.059124840762316</v>
+        <v>1.057362514428083</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053003776390299</v>
+        <v>1.03660741675814</v>
       </c>
       <c r="D7">
-        <v>1.061394181810647</v>
+        <v>1.054706483173407</v>
       </c>
       <c r="E7">
-        <v>1.060504600912033</v>
+        <v>1.048670692732175</v>
       </c>
       <c r="F7">
-        <v>1.073101376428302</v>
+        <v>1.062023993484172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052753226142111</v>
+        <v>1.066549967319314</v>
       </c>
       <c r="J7">
-        <v>1.057453401456168</v>
+        <v>1.055113129202707</v>
       </c>
       <c r="K7">
-        <v>1.063814906305878</v>
+        <v>1.064183816686458</v>
       </c>
       <c r="L7">
-        <v>1.062927462144377</v>
+        <v>1.058212340039929</v>
       </c>
       <c r="M7">
-        <v>1.075494334959968</v>
+        <v>1.07142455339192</v>
       </c>
       <c r="N7">
-        <v>1.058955106577836</v>
+        <v>1.056611510869342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051835446557093</v>
+        <v>1.031172123051294</v>
       </c>
       <c r="D8">
-        <v>1.060447130666946</v>
+        <v>1.050423588949613</v>
       </c>
       <c r="E8">
-        <v>1.059477166862653</v>
+        <v>1.04416653758598</v>
       </c>
       <c r="F8">
-        <v>1.071997411360675</v>
+        <v>1.057180937363531</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052401800698094</v>
+        <v>1.064560812827485</v>
       </c>
       <c r="J8">
-        <v>1.056744803636049</v>
+        <v>1.05191317302842</v>
       </c>
       <c r="K8">
-        <v>1.06311203697644</v>
+        <v>1.060961259024966</v>
       </c>
       <c r="L8">
-        <v>1.062144652705278</v>
+        <v>1.054779719793332</v>
       </c>
       <c r="M8">
-        <v>1.07463198808875</v>
+        <v>1.067638300953127</v>
       </c>
       <c r="N8">
-        <v>1.058245502467536</v>
+        <v>1.053407010390247</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049781391704661</v>
+        <v>1.021187272119713</v>
       </c>
       <c r="D9">
-        <v>1.058782215819731</v>
+        <v>1.042576573969404</v>
       </c>
       <c r="E9">
-        <v>1.05767349589791</v>
+        <v>1.035935354588388</v>
       </c>
       <c r="F9">
-        <v>1.070059044221221</v>
+        <v>1.048325481983398</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051775158615852</v>
+        <v>1.060834219140236</v>
       </c>
       <c r="J9">
-        <v>1.055495705841967</v>
+        <v>1.046013415036203</v>
       </c>
       <c r="K9">
-        <v>1.061872223241136</v>
+        <v>1.055014680938677</v>
       </c>
       <c r="L9">
-        <v>1.060766955940122</v>
+        <v>1.048471120692586</v>
       </c>
       <c r="M9">
-        <v>1.073114378362092</v>
+        <v>1.060680316923372</v>
       </c>
       <c r="N9">
-        <v>1.056994630811312</v>
+        <v>1.04749887406497</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048415263091769</v>
+        <v>1.014229683871939</v>
       </c>
       <c r="D10">
-        <v>1.057675001332809</v>
+        <v>1.037125539002671</v>
       </c>
       <c r="E10">
-        <v>1.056475722088942</v>
+        <v>1.03023143939988</v>
       </c>
       <c r="F10">
-        <v>1.068771586610706</v>
+        <v>1.04218546929259</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051352478213645</v>
+        <v>1.058190699821313</v>
       </c>
       <c r="J10">
-        <v>1.054662738241775</v>
+        <v>1.041889888596637</v>
       </c>
       <c r="K10">
-        <v>1.061044904122311</v>
+        <v>1.050855343667666</v>
       </c>
       <c r="L10">
-        <v>1.059849723830014</v>
+        <v>1.044075497631605</v>
       </c>
       <c r="M10">
-        <v>1.072104042148398</v>
+        <v>1.055832652754485</v>
       </c>
       <c r="N10">
-        <v>1.056160480301586</v>
+        <v>1.043369491744884</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04782450127505</v>
+        <v>1.011139037929141</v>
       </c>
       <c r="D11">
-        <v>1.057196233449806</v>
+        <v>1.034708779128901</v>
       </c>
       <c r="E11">
-        <v>1.055958202822289</v>
+        <v>1.027705801380626</v>
       </c>
       <c r="F11">
-        <v>1.068215261314317</v>
+        <v>1.039465865503383</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051168295972013</v>
+        <v>1.057005832796375</v>
       </c>
       <c r="J11">
-        <v>1.054302013300096</v>
+        <v>1.04005565136103</v>
       </c>
       <c r="K11">
-        <v>1.06068649757222</v>
+        <v>1.04900453628382</v>
       </c>
       <c r="L11">
-        <v>1.059452861404173</v>
+        <v>1.042123480951411</v>
       </c>
       <c r="M11">
-        <v>1.071666906993197</v>
+        <v>1.053680011647375</v>
       </c>
       <c r="N11">
-        <v>1.055799243089113</v>
+        <v>1.041532649682013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04760518479406</v>
+        <v>1.009978724695973</v>
       </c>
       <c r="D12">
-        <v>1.057018499083271</v>
+        <v>1.033802218964795</v>
       </c>
       <c r="E12">
-        <v>1.05576614383466</v>
+        <v>1.026758879256636</v>
       </c>
       <c r="F12">
-        <v>1.068008792279148</v>
+        <v>1.038446087724926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051099709148707</v>
+        <v>1.056559456262937</v>
       </c>
       <c r="J12">
-        <v>1.054168018520321</v>
+        <v>1.039366689835634</v>
       </c>
       <c r="K12">
-        <v>1.060553344866993</v>
+        <v>1.048309262612971</v>
       </c>
       <c r="L12">
-        <v>1.059305496225505</v>
+        <v>1.041390770974177</v>
       </c>
       <c r="M12">
-        <v>1.071504589176187</v>
+        <v>1.052872014655089</v>
       </c>
       <c r="N12">
-        <v>1.055665058021382</v>
+        <v>1.040842709752226</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047652223526322</v>
+        <v>1.010228182856197</v>
       </c>
       <c r="D13">
-        <v>1.057056619095152</v>
+        <v>1.033997087021058</v>
       </c>
       <c r="E13">
-        <v>1.055807333386563</v>
+        <v>1.026962401676643</v>
       </c>
       <c r="F13">
-        <v>1.068053072641922</v>
+        <v>1.03866527511841</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051114429086746</v>
+        <v>1.056655492755266</v>
       </c>
       <c r="J13">
-        <v>1.054196761083817</v>
+        <v>1.039514825758378</v>
       </c>
       <c r="K13">
-        <v>1.060581907664949</v>
+        <v>1.048458759583826</v>
       </c>
       <c r="L13">
-        <v>1.059337104399081</v>
+        <v>1.041548291182096</v>
       </c>
       <c r="M13">
-        <v>1.071539404447445</v>
+        <v>1.053045719385893</v>
       </c>
       <c r="N13">
-        <v>1.055693841402615</v>
+        <v>1.040991056044972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047806370075264</v>
+        <v>1.011043380771391</v>
       </c>
       <c r="D14">
-        <v>1.057181539794502</v>
+        <v>1.034634025827327</v>
       </c>
       <c r="E14">
-        <v>1.055942323673969</v>
+        <v>1.027627710187967</v>
       </c>
       <c r="F14">
-        <v>1.068198190939984</v>
+        <v>1.039381768747004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051162630095418</v>
+        <v>1.056969064301946</v>
       </c>
       <c r="J14">
-        <v>1.05429093735451</v>
+        <v>1.039998859468605</v>
       </c>
       <c r="K14">
-        <v>1.060675491621606</v>
+        <v>1.048947225819468</v>
       </c>
       <c r="L14">
-        <v>1.059440679181905</v>
+        <v>1.04206307283165</v>
       </c>
       <c r="M14">
-        <v>1.07165348864885</v>
+        <v>1.053613396099752</v>
       </c>
       <c r="N14">
-        <v>1.055788151414414</v>
+        <v>1.041475777138587</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047901360631792</v>
+        <v>1.011544001480375</v>
       </c>
       <c r="D15">
-        <v>1.057258521039646</v>
+        <v>1.035025277681604</v>
       </c>
       <c r="E15">
-        <v>1.05602551831805</v>
+        <v>1.028036451783807</v>
       </c>
       <c r="F15">
-        <v>1.068287626350083</v>
+        <v>1.039821938953557</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051192305381626</v>
+        <v>1.057161429095441</v>
       </c>
       <c r="J15">
-        <v>1.054348961773693</v>
+        <v>1.040296065661042</v>
       </c>
       <c r="K15">
-        <v>1.060733148570363</v>
+        <v>1.049247142281449</v>
       </c>
       <c r="L15">
-        <v>1.059504501318522</v>
+        <v>1.042379223674118</v>
       </c>
       <c r="M15">
-        <v>1.071723786843584</v>
+        <v>1.05396203482844</v>
       </c>
       <c r="N15">
-        <v>1.055846258234928</v>
+        <v>1.041773405397907</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048454486583298</v>
+        <v>1.014433107180061</v>
       </c>
       <c r="D16">
-        <v>1.057706789699547</v>
+        <v>1.037284709756487</v>
       </c>
       <c r="E16">
-        <v>1.056510091982661</v>
+        <v>1.030397848019394</v>
       </c>
       <c r="F16">
-        <v>1.06880853252265</v>
+        <v>1.042364639533154</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051364677432225</v>
+        <v>1.058268469670045</v>
       </c>
       <c r="J16">
-        <v>1.054686677534081</v>
+        <v>1.042010567129668</v>
       </c>
       <c r="K16">
-        <v>1.061068686871338</v>
+        <v>1.050977099706161</v>
       </c>
       <c r="L16">
-        <v>1.059876068826513</v>
+        <v>1.04420399313961</v>
       </c>
       <c r="M16">
-        <v>1.072133060809533</v>
+        <v>1.055974357389995</v>
       </c>
       <c r="N16">
-        <v>1.056184453590432</v>
+        <v>1.043490341655274</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048801657961614</v>
+        <v>1.016224084099415</v>
       </c>
       <c r="D17">
-        <v>1.057988155563027</v>
+        <v>1.038686616492207</v>
       </c>
       <c r="E17">
-        <v>1.056814354580277</v>
+        <v>1.03186387137986</v>
       </c>
       <c r="F17">
-        <v>1.069135593005298</v>
+        <v>1.043942990714971</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051472492150439</v>
+        <v>1.05895196907695</v>
       </c>
       <c r="J17">
-        <v>1.054898506652675</v>
+        <v>1.043072761418826</v>
       </c>
       <c r="K17">
-        <v>1.061279116055618</v>
+        <v>1.05204870601661</v>
       </c>
       <c r="L17">
-        <v>1.06010922595555</v>
+        <v>1.045335362225077</v>
       </c>
       <c r="M17">
-        <v>1.072389881538197</v>
+        <v>1.057222043092029</v>
       </c>
       <c r="N17">
-        <v>1.056396583530672</v>
+        <v>1.044554044382159</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049004232400331</v>
+        <v>1.0172612504179</v>
       </c>
       <c r="D18">
-        <v>1.058152335396074</v>
+        <v>1.039498908285328</v>
       </c>
       <c r="E18">
-        <v>1.056991934206188</v>
+        <v>1.032713622114934</v>
       </c>
       <c r="F18">
-        <v>1.069326472913695</v>
+        <v>1.044857767751809</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051535266789021</v>
+        <v>1.059346779265187</v>
       </c>
       <c r="J18">
-        <v>1.055022058621609</v>
+        <v>1.043687643213097</v>
       </c>
       <c r="K18">
-        <v>1.061401839166154</v>
+        <v>1.052668974851288</v>
       </c>
       <c r="L18">
-        <v>1.060245251914059</v>
+        <v>1.045990596794251</v>
       </c>
       <c r="M18">
-        <v>1.072539714113186</v>
+        <v>1.057944653834282</v>
       </c>
       <c r="N18">
-        <v>1.056520310957573</v>
+        <v>1.045169799379106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049073317768404</v>
+        <v>1.017613646059985</v>
       </c>
       <c r="D19">
-        <v>1.058208327260983</v>
+        <v>1.039774971513249</v>
       </c>
       <c r="E19">
-        <v>1.057052502603276</v>
+        <v>1.033002468570366</v>
       </c>
       <c r="F19">
-        <v>1.069391576812292</v>
+        <v>1.045168704027367</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051556652321503</v>
+        <v>1.059480750598403</v>
       </c>
       <c r="J19">
-        <v>1.055064185871875</v>
+        <v>1.043896518035533</v>
       </c>
       <c r="K19">
-        <v>1.061443681708728</v>
+        <v>1.052879668999784</v>
       </c>
       <c r="L19">
-        <v>1.060291638187737</v>
+        <v>1.046213231775859</v>
       </c>
       <c r="M19">
-        <v>1.072590808767077</v>
+        <v>1.058190183678971</v>
       </c>
       <c r="N19">
-        <v>1.056562498033367</v>
+        <v>1.045378970827748</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048764401964708</v>
+        <v>1.016032707131627</v>
       </c>
       <c r="D20">
-        <v>1.057957961048551</v>
+        <v>1.038536768189628</v>
       </c>
       <c r="E20">
-        <v>1.056781698858158</v>
+        <v>1.031707137773231</v>
       </c>
       <c r="F20">
-        <v>1.069100491009923</v>
+        <v>1.043774256610207</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051460936216467</v>
+        <v>1.058879037247649</v>
       </c>
       <c r="J20">
-        <v>1.054875779836493</v>
+        <v>1.042959284187839</v>
       </c>
       <c r="K20">
-        <v>1.061256540710946</v>
+        <v>1.051934229583644</v>
       </c>
       <c r="L20">
-        <v>1.060084207356613</v>
+        <v>1.045214462792381</v>
       </c>
       <c r="M20">
-        <v>1.072362323640153</v>
+        <v>1.057088712757844</v>
       </c>
       <c r="N20">
-        <v>1.056373824439804</v>
+        <v>1.044440406000488</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047760974468605</v>
+        <v>1.010803670091641</v>
       </c>
       <c r="D21">
-        <v>1.057144750950999</v>
+        <v>1.034446711277667</v>
       </c>
       <c r="E21">
-        <v>1.055902567672474</v>
+        <v>1.027432039360655</v>
       </c>
       <c r="F21">
-        <v>1.068155452374054</v>
+        <v>1.039171047795127</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051148440878571</v>
+        <v>1.056876900084514</v>
       </c>
       <c r="J21">
-        <v>1.054263204931517</v>
+        <v>1.039856537323747</v>
       </c>
       <c r="K21">
-        <v>1.060647934146481</v>
+        <v>1.048803602725166</v>
       </c>
       <c r="L21">
-        <v>1.059410177676162</v>
+        <v>1.041911696231446</v>
       </c>
       <c r="M21">
-        <v>1.071619892202178</v>
+        <v>1.053446464636602</v>
       </c>
       <c r="N21">
-        <v>1.0557603796082</v>
+        <v>1.041333252879959</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047130767609747</v>
+        <v>1.007444423435609</v>
       </c>
       <c r="D22">
-        <v>1.056634040657914</v>
+        <v>1.031823612204267</v>
       </c>
       <c r="E22">
-        <v>1.055350811541701</v>
+        <v>1.024693054561483</v>
       </c>
       <c r="F22">
-        <v>1.06756228218625</v>
+        <v>1.036221071399344</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050950960156365</v>
+        <v>1.055581713486893</v>
       </c>
       <c r="J22">
-        <v>1.053878023696302</v>
+        <v>1.03786131531585</v>
       </c>
       <c r="K22">
-        <v>1.0602651376103</v>
+        <v>1.046789943135557</v>
       </c>
       <c r="L22">
-        <v>1.058986662199462</v>
+        <v>1.039790711302012</v>
       </c>
       <c r="M22">
-        <v>1.071153407193493</v>
+        <v>1.051107584220958</v>
       </c>
       <c r="N22">
-        <v>1.055374651371449</v>
+        <v>1.039335197427955</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047464786508215</v>
+        <v>1.009232214293213</v>
       </c>
       <c r="D23">
-        <v>1.056904721626175</v>
+        <v>1.033219186596737</v>
       </c>
       <c r="E23">
-        <v>1.055643213624145</v>
+        <v>1.026150023369559</v>
       </c>
       <c r="F23">
-        <v>1.067876636285862</v>
+        <v>1.037790348873392</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051055743193262</v>
+        <v>1.056271841592868</v>
       </c>
       <c r="J23">
-        <v>1.054082218099728</v>
+        <v>1.038923342523706</v>
       </c>
       <c r="K23">
-        <v>1.060468078277703</v>
+        <v>1.047861829611933</v>
       </c>
       <c r="L23">
-        <v>1.059211149367581</v>
+        <v>1.040919410086244</v>
       </c>
       <c r="M23">
-        <v>1.071400669733991</v>
+        <v>1.052352226451835</v>
       </c>
       <c r="N23">
-        <v>1.055579135754351</v>
+        <v>1.040398732836263</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048781236113697</v>
+        <v>1.016119205218597</v>
       </c>
       <c r="D24">
-        <v>1.057971604452746</v>
+        <v>1.038604494898645</v>
       </c>
       <c r="E24">
-        <v>1.056796454238608</v>
+        <v>1.031777975465984</v>
       </c>
       <c r="F24">
-        <v>1.069116351747744</v>
+        <v>1.043850518331164</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051466158191329</v>
+        <v>1.05891200392502</v>
       </c>
       <c r="J24">
-        <v>1.054886049120109</v>
+        <v>1.043010574097538</v>
       </c>
       <c r="K24">
-        <v>1.061266741589121</v>
+        <v>1.051985971307696</v>
       </c>
       <c r="L24">
-        <v>1.060095512094033</v>
+        <v>1.045269106461943</v>
       </c>
       <c r="M24">
-        <v>1.072374775765074</v>
+        <v>1.057148974864834</v>
       </c>
       <c r="N24">
-        <v>1.05638410830698</v>
+        <v>1.044491768747742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050311849199952</v>
+        <v>1.023819556305912</v>
       </c>
       <c r="D25">
-        <v>1.059212162552886</v>
+        <v>1.044642557808847</v>
       </c>
       <c r="E25">
-        <v>1.058138971818036</v>
+        <v>1.038100038581776</v>
       </c>
       <c r="F25">
-        <v>1.070559322684477</v>
+        <v>1.050654934854656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051938031045802</v>
+        <v>1.061824892968051</v>
       </c>
       <c r="J25">
-        <v>1.055818674397763</v>
+        <v>1.047571054004873</v>
       </c>
       <c r="K25">
-        <v>1.062192887264968</v>
+        <v>1.056585242678645</v>
       </c>
       <c r="L25">
-        <v>1.061122912242699</v>
+        <v>1.050134350392576</v>
       </c>
       <c r="M25">
-        <v>1.073506475957713</v>
+        <v>1.062514684809334</v>
       </c>
       <c r="N25">
-        <v>1.057318058019503</v>
+        <v>1.049058725059639</v>
       </c>
     </row>
   </sheetData>
